--- a/data/triangle_v9.xlsx
+++ b/data/triangle_v9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\La Chouette\Python\AssembleurTriangles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86103DE4-452E-48CD-A8C0-7CD412CEA3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574DD8D6-01D6-414E-964E-C7954A361897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="10350" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Triangles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
   <si>
     <t>Rang</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Reims</t>
   </si>
   <si>
-    <t>Montbrison</t>
+    <t>Villefrancoeur</t>
   </si>
   <si>
     <t>Thury-sous-Clermont</t>
@@ -184,6 +184,9 @@
     <t>Rouen</t>
   </si>
   <si>
+    <t>Compiègne</t>
+  </si>
+  <si>
     <t>Domrémy</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>Donon</t>
+  </si>
+  <si>
+    <t>Beaurevoir</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K23" sqref="K23:K24"/>
@@ -960,25 +966,25 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>115.25</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="F12">
-        <v>27.58</v>
+        <v>23.82</v>
       </c>
       <c r="G12">
-        <v>37.18</v>
+        <v>78.02</v>
       </c>
       <c r="H12">
         <v>271.26</v>
       </c>
       <c r="I12">
-        <v>207.83</v>
+        <v>112</v>
       </c>
       <c r="J12">
-        <v>406.04</v>
+        <v>271.39</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -1654,28 +1660,28 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
       <c r="E32">
-        <v>105.98</v>
+        <v>79.5</v>
       </c>
       <c r="F32">
-        <v>23.84</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="G32">
-        <v>50.18</v>
+        <v>60.7</v>
       </c>
       <c r="H32">
-        <v>288.39</v>
+        <v>356.02</v>
       </c>
       <c r="I32">
-        <v>151.78</v>
+        <v>261.32</v>
       </c>
       <c r="J32">
-        <v>360.98</v>
+        <v>401.41</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
@@ -1689,31 +1695,136 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>56</v>
       </c>
       <c r="E33">
-        <v>7.07</v>
+        <v>105.98</v>
       </c>
       <c r="F33">
-        <v>154.15</v>
+        <v>23.84</v>
       </c>
       <c r="G33">
-        <v>18.78</v>
+        <v>50.18</v>
       </c>
       <c r="H33">
         <v>288.39</v>
       </c>
       <c r="I33">
-        <v>390.65</v>
+        <v>151.78</v>
       </c>
       <c r="J33">
-        <v>110.33</v>
+        <v>360.98</v>
       </c>
       <c r="K33" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34">
+        <v>7.07</v>
+      </c>
+      <c r="F34">
+        <v>154.15</v>
+      </c>
+      <c r="G34">
+        <v>18.78</v>
+      </c>
+      <c r="H34">
+        <v>288.39</v>
+      </c>
+      <c r="I34">
+        <v>390.65</v>
+      </c>
+      <c r="J34">
+        <v>110.33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="F35">
+        <v>50.47</v>
+      </c>
+      <c r="G35">
+        <v>52.68</v>
+      </c>
+      <c r="H35">
+        <v>288.39</v>
+      </c>
+      <c r="I35">
+        <v>279.67</v>
+      </c>
+      <c r="J35">
+        <v>353.1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36">
+        <v>45.78</v>
+      </c>
+      <c r="F36">
+        <v>76.39</v>
+      </c>
+      <c r="G36">
+        <v>57.83</v>
+      </c>
+      <c r="H36">
+        <v>288.39</v>
+      </c>
+      <c r="I36">
+        <v>331.11</v>
+      </c>
+      <c r="J36">
+        <v>244.13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
